--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Public File V2 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 Public File V2 Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B2B2D-A6E8-4440-81D3-495ED46D622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0CC1A-F95E-4EC8-BDB1-12BE68A26EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -1630,13 +1630,6 @@
     <t>ENTITY URL</t>
   </si>
   <si>
-    <t>UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>The Unique Entity Identifier (SAM) for the entity.
-It is 12-character alpha-numeric. Example: F847A1795DE4</t>
-  </si>
-  <si>
     <t>FLEX FIELD 1</t>
   </si>
   <si>
@@ -1909,6 +1902,13 @@
   </si>
   <si>
     <t>ALT ELEC POC BUS STATE OR PROVINCE</t>
+  </si>
+  <si>
+    <t>UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>The UNIQUE ENTITY ID for the entity.
+It is 12-character alpha-numeric. Example: F847A1795DE4</t>
   </si>
 </sst>
 </file>
@@ -2870,51 +2870,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2968,6 +2923,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3369,7 +3369,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3394,21 +3394,21 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="139" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
@@ -3417,21 +3417,21 @@
       <c r="B3" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="137" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="124" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3476,7 +3476,7 @@
     </row>
     <row r="5" spans="1:15" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>523</v>
+        <v>612</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>524</v>
+        <v>613</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="107" t="s">
@@ -3513,38 +3513,38 @@
         <v>X</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="142" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="134" t="s">
+    <row r="6" spans="1:15" s="127" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="119" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="120">
+        <v>2</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="120">
+        <v>0</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>534</v>
+      </c>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125" t="s">
         <v>535</v>
       </c>
-      <c r="B6" s="135">
-        <v>2</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="135">
-        <v>9</v>
-      </c>
-      <c r="F6" s="136" t="s">
-        <v>536</v>
-      </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140" t="s">
-        <v>537</v>
-      </c>
-      <c r="K6" s="134" t="s">
-        <v>224</v>
-      </c>
-      <c r="L6" s="137">
-        <v>1</v>
-      </c>
-      <c r="M6" s="141" t="str">
+      <c r="K6" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="122">
+        <v>1</v>
+      </c>
+      <c r="M6" s="126" t="str">
         <f t="shared" ref="M6" si="0">IF(L6&lt;=1,"X","")</f>
         <v>X</v>
       </c>
@@ -3574,8 +3574,8 @@
       <c r="H7" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="I7" s="143" t="s">
-        <v>539</v>
+      <c r="I7" s="128" t="s">
+        <v>537</v>
       </c>
       <c r="J7" s="23">
         <v>1111</v>
@@ -3688,8 +3688,8 @@
       <c r="F10" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="G10" s="143" t="s">
-        <v>538</v>
+      <c r="G10" s="128" t="s">
+        <v>536</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>217</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="13" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B13" s="22">
         <v>9</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B18" s="106">
         <v>14</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.25">
       <c r="A28" s="110" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B28" s="22">
         <v>24</v>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="118" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="113" t="s">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="I28" s="113"/>
       <c r="J28" s="112" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>224</v>
@@ -5266,422 +5266,422 @@
       </c>
     </row>
     <row r="51" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A51" s="144" t="s">
-        <v>540</v>
+      <c r="A51" s="129" t="s">
+        <v>538</v>
       </c>
       <c r="B51" s="106">
         <v>47</v>
       </c>
-      <c r="C51" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="145">
+      <c r="C51" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="130">
         <v>65</v>
       </c>
-      <c r="F51" s="146" t="s">
+      <c r="F51" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="147"/>
-      <c r="H51" s="148" t="s">
+      <c r="G51" s="132"/>
+      <c r="H51" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I51" s="143"/>
-      <c r="J51" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K51" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L51" s="147">
+      <c r="I51" s="128"/>
+      <c r="J51" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K51" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" s="132">
         <f t="shared" ref="L51:L94" si="8">IF(K51="Public",1,IF(K51="FOUO",2,IF(K51="Sensitive",3,IF(K51="System-Only",4))))</f>
         <v>1</v>
       </c>
-      <c r="M51" s="149" t="str">
+      <c r="M51" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N51" s="149" t="str">
+      <c r="N51" s="134" t="str">
         <f t="shared" ref="N51:N94" si="9">IF(L51&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O51" s="150" t="str">
+      <c r="O51" s="135" t="str">
         <f t="shared" ref="O51:O94" si="10">IF(L51&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="52" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A52" s="144" t="s">
-        <v>542</v>
+      <c r="A52" s="129" t="s">
+        <v>540</v>
       </c>
       <c r="B52" s="22">
         <v>48</v>
       </c>
-      <c r="C52" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="145">
+      <c r="C52" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="130">
         <v>3</v>
       </c>
-      <c r="F52" s="146" t="s">
+      <c r="F52" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="147"/>
-      <c r="H52" s="148" t="s">
+      <c r="G52" s="132"/>
+      <c r="H52" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I52" s="143"/>
-      <c r="J52" s="147" t="s">
+      <c r="I52" s="128"/>
+      <c r="J52" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K52" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L52" s="147">
+      <c r="K52" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L52" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M52" s="149" t="str">
+      <c r="M52" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N52" s="149" t="str">
+      <c r="N52" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O52" s="150" t="str">
+      <c r="O52" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="53" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A53" s="144" t="s">
-        <v>543</v>
+      <c r="A53" s="129" t="s">
+        <v>541</v>
       </c>
       <c r="B53" s="22">
         <v>49</v>
       </c>
-      <c r="C53" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="145">
+      <c r="C53" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="130">
         <v>65</v>
       </c>
-      <c r="F53" s="146" t="s">
+      <c r="F53" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G53" s="147"/>
-      <c r="H53" s="148" t="s">
+      <c r="G53" s="132"/>
+      <c r="H53" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I53" s="143"/>
-      <c r="J53" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K53" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L53" s="147">
+      <c r="I53" s="128"/>
+      <c r="J53" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K53" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L53" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M53" s="149" t="str">
+      <c r="M53" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N53" s="149" t="str">
+      <c r="N53" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O53" s="150" t="str">
+      <c r="O53" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="54" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A54" s="144" t="s">
-        <v>545</v>
+      <c r="A54" s="129" t="s">
+        <v>543</v>
       </c>
       <c r="B54" s="106">
         <v>50</v>
       </c>
-      <c r="C54" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="145">
+      <c r="C54" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="130">
         <v>50</v>
       </c>
-      <c r="F54" s="146" t="s">
+      <c r="F54" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G54" s="147"/>
-      <c r="H54" s="148" t="s">
+      <c r="G54" s="132"/>
+      <c r="H54" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I54" s="143"/>
-      <c r="J54" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K54" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L54" s="147">
+      <c r="I54" s="128"/>
+      <c r="J54" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K54" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L54" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M54" s="149" t="str">
+      <c r="M54" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N54" s="149" t="str">
+      <c r="N54" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O54" s="150" t="str">
+      <c r="O54" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="55" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A55" s="144" t="s">
-        <v>547</v>
+      <c r="A55" s="129" t="s">
+        <v>545</v>
       </c>
       <c r="B55" s="22">
         <v>51</v>
       </c>
-      <c r="C55" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D55" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="145">
+      <c r="C55" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="130">
         <v>150</v>
       </c>
-      <c r="F55" s="146" t="s">
+      <c r="F55" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G55" s="147"/>
-      <c r="H55" s="148" t="s">
+      <c r="G55" s="132"/>
+      <c r="H55" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I55" s="143"/>
-      <c r="J55" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K55" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L55" s="147">
+      <c r="I55" s="128"/>
+      <c r="J55" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K55" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L55" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M55" s="149" t="str">
+      <c r="M55" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N55" s="149" t="str">
+      <c r="N55" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O55" s="150" t="str">
+      <c r="O55" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="56" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A56" s="144" t="s">
-        <v>549</v>
+      <c r="A56" s="129" t="s">
+        <v>547</v>
       </c>
       <c r="B56" s="22">
         <v>52</v>
       </c>
-      <c r="C56" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D56" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="145">
+      <c r="C56" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="130">
         <v>150</v>
       </c>
-      <c r="F56" s="146" t="s">
+      <c r="F56" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G56" s="147"/>
-      <c r="H56" s="148" t="s">
+      <c r="G56" s="132"/>
+      <c r="H56" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I56" s="143"/>
-      <c r="J56" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K56" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L56" s="147">
+      <c r="I56" s="128"/>
+      <c r="J56" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K56" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M56" s="149" t="str">
+      <c r="M56" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N56" s="149" t="str">
+      <c r="N56" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O56" s="150" t="str">
+      <c r="O56" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="57" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A57" s="144" t="s">
-        <v>551</v>
+      <c r="A57" s="129" t="s">
+        <v>549</v>
       </c>
       <c r="B57" s="106">
         <v>53</v>
       </c>
-      <c r="C57" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="145">
+      <c r="C57" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="130">
         <v>40</v>
       </c>
-      <c r="F57" s="146" t="s">
+      <c r="F57" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="148" t="s">
+      <c r="G57" s="132"/>
+      <c r="H57" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I57" s="143"/>
-      <c r="J57" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K57" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L57" s="147">
+      <c r="I57" s="128"/>
+      <c r="J57" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K57" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L57" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M57" s="149" t="str">
+      <c r="M57" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N57" s="149" t="str">
+      <c r="N57" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O57" s="150" t="str">
+      <c r="O57" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="58" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A58" s="144" t="s">
-        <v>553</v>
+      <c r="A58" s="129" t="s">
+        <v>551</v>
       </c>
       <c r="B58" s="22">
         <v>54</v>
       </c>
-      <c r="C58" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E58" s="145">
+      <c r="C58" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="130">
         <v>50</v>
       </c>
-      <c r="F58" s="146" t="s">
+      <c r="F58" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="147"/>
-      <c r="H58" s="148" t="s">
+      <c r="G58" s="132"/>
+      <c r="H58" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I58" s="143" t="s">
+      <c r="I58" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J58" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K58" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L58" s="147">
+      <c r="J58" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K58" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L58" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M58" s="149" t="str">
+      <c r="M58" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N58" s="149" t="str">
+      <c r="N58" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O58" s="150" t="str">
+      <c r="O58" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="59" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A59" s="144" t="s">
-        <v>555</v>
+      <c r="A59" s="129" t="s">
+        <v>553</v>
       </c>
       <c r="B59" s="22">
         <v>55</v>
       </c>
-      <c r="C59" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="145" t="s">
+      <c r="C59" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E59" s="145">
+      <c r="E59" s="130">
         <v>4</v>
       </c>
-      <c r="F59" s="146" t="s">
+      <c r="F59" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G59" s="147"/>
-      <c r="H59" s="148" t="s">
+      <c r="G59" s="132"/>
+      <c r="H59" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I59" s="143"/>
-      <c r="J59" s="147" t="s">
+      <c r="I59" s="128"/>
+      <c r="J59" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K59" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L59" s="147">
+      <c r="K59" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L59" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M59" s="149" t="str">
+      <c r="M59" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N59" s="151" t="str">
+      <c r="N59" s="136" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
@@ -5691,518 +5691,518 @@
       </c>
     </row>
     <row r="60" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A60" s="144" t="s">
-        <v>556</v>
+      <c r="A60" s="129" t="s">
+        <v>554</v>
       </c>
       <c r="B60" s="106">
         <v>56</v>
       </c>
-      <c r="C60" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="145">
+      <c r="C60" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="130">
         <v>3</v>
       </c>
-      <c r="F60" s="146" t="s">
+      <c r="F60" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G60" s="147"/>
-      <c r="H60" s="148" t="s">
+      <c r="G60" s="132"/>
+      <c r="H60" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I60" s="143"/>
-      <c r="J60" s="147" t="s">
+      <c r="I60" s="128"/>
+      <c r="J60" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K60" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L60" s="147">
+      <c r="K60" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L60" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M60" s="149" t="str">
+      <c r="M60" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N60" s="149" t="str">
+      <c r="N60" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O60" s="150" t="str">
+      <c r="O60" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="61" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A61" s="144" t="s">
-        <v>557</v>
+      <c r="A61" s="129" t="s">
+        <v>555</v>
       </c>
       <c r="B61" s="22">
         <v>57</v>
       </c>
-      <c r="C61" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D61" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="145">
+      <c r="C61" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="130">
         <v>55</v>
       </c>
-      <c r="F61" s="146" t="s">
+      <c r="F61" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G61" s="147"/>
-      <c r="H61" s="148" t="s">
+      <c r="G61" s="132"/>
+      <c r="H61" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I61" s="143" t="s">
+      <c r="I61" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J61" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K61" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L61" s="147">
+      <c r="J61" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K61" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L61" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M61" s="149" t="str">
+      <c r="M61" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N61" s="149" t="str">
+      <c r="N61" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O61" s="150" t="str">
+      <c r="O61" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="62" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A62" s="144" t="s">
-        <v>559</v>
+      <c r="A62" s="129" t="s">
+        <v>557</v>
       </c>
       <c r="B62" s="22">
         <v>58</v>
       </c>
-      <c r="C62" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="145">
+      <c r="C62" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="130">
         <v>65</v>
       </c>
-      <c r="F62" s="146" t="s">
+      <c r="F62" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G62" s="147"/>
-      <c r="H62" s="148" t="s">
+      <c r="G62" s="132"/>
+      <c r="H62" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I62" s="143"/>
-      <c r="J62" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K62" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L62" s="147">
+      <c r="I62" s="128"/>
+      <c r="J62" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K62" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L62" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M62" s="149" t="str">
+      <c r="M62" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N62" s="149" t="str">
+      <c r="N62" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O62" s="150" t="str">
+      <c r="O62" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="63" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A63" s="144" t="s">
-        <v>560</v>
+      <c r="A63" s="129" t="s">
+        <v>558</v>
       </c>
       <c r="B63" s="106">
         <v>59</v>
       </c>
-      <c r="C63" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D63" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="145">
+      <c r="C63" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="130">
         <v>3</v>
       </c>
-      <c r="F63" s="146" t="s">
+      <c r="F63" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G63" s="147"/>
-      <c r="H63" s="148" t="s">
+      <c r="G63" s="132"/>
+      <c r="H63" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I63" s="143"/>
-      <c r="J63" s="147" t="s">
+      <c r="I63" s="128"/>
+      <c r="J63" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K63" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L63" s="147">
+      <c r="K63" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L63" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M63" s="149" t="str">
+      <c r="M63" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N63" s="149" t="str">
+      <c r="N63" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O63" s="150" t="str">
+      <c r="O63" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="64" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A64" s="144" t="s">
-        <v>561</v>
+      <c r="A64" s="129" t="s">
+        <v>559</v>
       </c>
       <c r="B64" s="22">
         <v>60</v>
       </c>
-      <c r="C64" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="145">
+      <c r="C64" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="130">
         <v>65</v>
       </c>
-      <c r="F64" s="146" t="s">
+      <c r="F64" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G64" s="147"/>
-      <c r="H64" s="148" t="s">
+      <c r="G64" s="132"/>
+      <c r="H64" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I64" s="143"/>
-      <c r="J64" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K64" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L64" s="147">
+      <c r="I64" s="128"/>
+      <c r="J64" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K64" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L64" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M64" s="149" t="str">
+      <c r="M64" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N64" s="149" t="str">
+      <c r="N64" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O64" s="150" t="str">
+      <c r="O64" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="65" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A65" s="144" t="s">
-        <v>562</v>
+      <c r="A65" s="129" t="s">
+        <v>560</v>
       </c>
       <c r="B65" s="22">
         <v>61</v>
       </c>
-      <c r="C65" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="145">
+      <c r="C65" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="130">
         <v>50</v>
       </c>
-      <c r="F65" s="146" t="s">
+      <c r="F65" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G65" s="147"/>
-      <c r="H65" s="148" t="s">
+      <c r="G65" s="132"/>
+      <c r="H65" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I65" s="143"/>
-      <c r="J65" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K65" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L65" s="147">
+      <c r="I65" s="128"/>
+      <c r="J65" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K65" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M65" s="149" t="str">
+      <c r="M65" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N65" s="149" t="str">
+      <c r="N65" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O65" s="150" t="str">
+      <c r="O65" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="66" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A66" s="144" t="s">
-        <v>563</v>
+      <c r="A66" s="129" t="s">
+        <v>561</v>
       </c>
       <c r="B66" s="106">
         <v>62</v>
       </c>
-      <c r="C66" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="145">
+      <c r="C66" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="130">
         <v>150</v>
       </c>
-      <c r="F66" s="146" t="s">
+      <c r="F66" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G66" s="147"/>
-      <c r="H66" s="148" t="s">
+      <c r="G66" s="132"/>
+      <c r="H66" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I66" s="143"/>
-      <c r="J66" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K66" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L66" s="147">
+      <c r="I66" s="128"/>
+      <c r="J66" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L66" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M66" s="149" t="str">
+      <c r="M66" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N66" s="149" t="str">
+      <c r="N66" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O66" s="150" t="str">
+      <c r="O66" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="67" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A67" s="144" t="s">
-        <v>564</v>
+      <c r="A67" s="129" t="s">
+        <v>562</v>
       </c>
       <c r="B67" s="22">
         <v>63</v>
       </c>
-      <c r="C67" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="145">
+      <c r="C67" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="130">
         <v>150</v>
       </c>
-      <c r="F67" s="146" t="s">
+      <c r="F67" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G67" s="147"/>
-      <c r="H67" s="148" t="s">
+      <c r="G67" s="132"/>
+      <c r="H67" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I67" s="143"/>
-      <c r="J67" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K67" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L67" s="147">
+      <c r="I67" s="128"/>
+      <c r="J67" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L67" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M67" s="149" t="str">
+      <c r="M67" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N67" s="149" t="str">
+      <c r="N67" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O67" s="150" t="str">
+      <c r="O67" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="68" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A68" s="144" t="s">
-        <v>565</v>
+      <c r="A68" s="129" t="s">
+        <v>563</v>
       </c>
       <c r="B68" s="22">
         <v>64</v>
       </c>
-      <c r="C68" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="145">
+      <c r="C68" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="130">
         <v>40</v>
       </c>
-      <c r="F68" s="146" t="s">
+      <c r="F68" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G68" s="147"/>
-      <c r="H68" s="148" t="s">
+      <c r="G68" s="132"/>
+      <c r="H68" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I68" s="143"/>
-      <c r="J68" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K68" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L68" s="147">
+      <c r="I68" s="128"/>
+      <c r="J68" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L68" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M68" s="149" t="str">
+      <c r="M68" s="134" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="N68" s="149" t="str">
+      <c r="N68" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O68" s="150" t="str">
+      <c r="O68" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="69" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A69" s="144" t="s">
-        <v>566</v>
+      <c r="A69" s="129" t="s">
+        <v>564</v>
       </c>
       <c r="B69" s="106">
         <v>65</v>
       </c>
-      <c r="C69" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="145">
+      <c r="C69" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="130">
         <v>50</v>
       </c>
-      <c r="F69" s="146" t="s">
+      <c r="F69" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G69" s="147"/>
-      <c r="H69" s="148" t="s">
+      <c r="G69" s="132"/>
+      <c r="H69" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I69" s="143" t="s">
+      <c r="I69" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J69" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K69" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L69" s="147">
+      <c r="J69" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K69" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L69" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M69" s="149" t="str">
+      <c r="M69" s="134" t="str">
         <f t="shared" ref="M69:M112" si="11">IF(L69&lt;=1,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N69" s="149" t="str">
+      <c r="N69" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O69" s="150" t="str">
+      <c r="O69" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="70" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A70" s="144" t="s">
-        <v>567</v>
+      <c r="A70" s="129" t="s">
+        <v>565</v>
       </c>
       <c r="B70" s="22">
         <v>66</v>
       </c>
-      <c r="C70" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="145" t="s">
+      <c r="C70" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E70" s="145">
+      <c r="E70" s="130">
         <v>4</v>
       </c>
-      <c r="F70" s="146" t="s">
+      <c r="F70" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G70" s="147"/>
-      <c r="H70" s="148" t="s">
+      <c r="G70" s="132"/>
+      <c r="H70" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I70" s="143"/>
-      <c r="J70" s="147" t="s">
+      <c r="I70" s="128"/>
+      <c r="J70" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K70" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L70" s="147">
+      <c r="K70" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L70" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M70" s="149" t="str">
+      <c r="M70" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N70" s="151" t="str">
+      <c r="N70" s="136" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
@@ -6212,2181 +6212,2181 @@
       </c>
     </row>
     <row r="71" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A71" s="144" t="s">
-        <v>568</v>
+      <c r="A71" s="129" t="s">
+        <v>566</v>
       </c>
       <c r="B71" s="22">
         <v>67</v>
       </c>
-      <c r="C71" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="145">
+      <c r="C71" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="130">
         <v>3</v>
       </c>
-      <c r="F71" s="146" t="s">
+      <c r="F71" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G71" s="147"/>
-      <c r="H71" s="148" t="s">
+      <c r="G71" s="132"/>
+      <c r="H71" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I71" s="143"/>
-      <c r="J71" s="147" t="s">
+      <c r="I71" s="128"/>
+      <c r="J71" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K71" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L71" s="147">
+      <c r="K71" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L71" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M71" s="149" t="str">
+      <c r="M71" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N71" s="149" t="str">
+      <c r="N71" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O71" s="150" t="str">
+      <c r="O71" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="72" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A72" s="144" t="s">
-        <v>569</v>
+      <c r="A72" s="129" t="s">
+        <v>567</v>
       </c>
       <c r="B72" s="106">
         <v>68</v>
       </c>
-      <c r="C72" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D72" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="145">
+      <c r="C72" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="130">
         <v>55</v>
       </c>
-      <c r="F72" s="146" t="s">
+      <c r="F72" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G72" s="147"/>
-      <c r="H72" s="148" t="s">
+      <c r="G72" s="132"/>
+      <c r="H72" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I72" s="143" t="s">
+      <c r="I72" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="J72" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K72" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L72" s="147">
+      <c r="J72" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L72" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M72" s="149" t="str">
+      <c r="M72" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N72" s="149" t="str">
+      <c r="N72" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O72" s="150" t="str">
+      <c r="O72" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="73" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A73" s="144" t="s">
-        <v>570</v>
+      <c r="A73" s="129" t="s">
+        <v>568</v>
       </c>
       <c r="B73" s="22">
         <v>69</v>
       </c>
-      <c r="C73" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="145">
+      <c r="C73" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="130">
         <v>65</v>
       </c>
-      <c r="F73" s="146" t="s">
+      <c r="F73" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G73" s="147"/>
-      <c r="H73" s="148" t="s">
+      <c r="G73" s="132"/>
+      <c r="H73" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I73" s="143"/>
-      <c r="J73" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K73" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L73" s="147">
+      <c r="I73" s="128"/>
+      <c r="J73" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K73" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L73" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M73" s="149" t="str">
+      <c r="M73" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N73" s="149" t="str">
+      <c r="N73" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O73" s="150" t="str">
+      <c r="O73" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="74" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A74" s="144" t="s">
-        <v>571</v>
+      <c r="A74" s="129" t="s">
+        <v>569</v>
       </c>
       <c r="B74" s="22">
         <v>70</v>
       </c>
-      <c r="C74" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="145">
+      <c r="C74" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="130">
         <v>3</v>
       </c>
-      <c r="F74" s="146" t="s">
+      <c r="F74" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G74" s="147"/>
-      <c r="H74" s="148" t="s">
+      <c r="G74" s="132"/>
+      <c r="H74" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I74" s="143"/>
-      <c r="J74" s="147" t="s">
+      <c r="I74" s="128"/>
+      <c r="J74" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K74" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L74" s="147">
+      <c r="K74" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L74" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M74" s="149" t="str">
+      <c r="M74" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N74" s="149" t="str">
+      <c r="N74" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O74" s="150" t="str">
+      <c r="O74" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="75" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A75" s="144" t="s">
-        <v>572</v>
+      <c r="A75" s="129" t="s">
+        <v>570</v>
       </c>
       <c r="B75" s="106">
         <v>71</v>
       </c>
-      <c r="C75" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E75" s="145">
+      <c r="C75" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="130">
         <v>65</v>
       </c>
-      <c r="F75" s="146" t="s">
+      <c r="F75" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G75" s="147"/>
-      <c r="H75" s="148" t="s">
+      <c r="G75" s="132"/>
+      <c r="H75" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I75" s="143"/>
-      <c r="J75" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K75" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L75" s="147">
+      <c r="I75" s="128"/>
+      <c r="J75" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L75" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M75" s="149" t="str">
+      <c r="M75" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N75" s="149" t="str">
+      <c r="N75" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O75" s="150" t="str">
+      <c r="O75" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="76" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A76" s="144" t="s">
-        <v>573</v>
+      <c r="A76" s="129" t="s">
+        <v>571</v>
       </c>
       <c r="B76" s="22">
         <v>72</v>
       </c>
-      <c r="C76" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="145">
+      <c r="C76" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="130">
         <v>50</v>
       </c>
-      <c r="F76" s="146" t="s">
+      <c r="F76" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G76" s="147"/>
-      <c r="H76" s="148" t="s">
+      <c r="G76" s="132"/>
+      <c r="H76" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I76" s="143"/>
-      <c r="J76" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K76" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L76" s="147">
+      <c r="I76" s="128"/>
+      <c r="J76" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K76" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L76" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M76" s="149" t="str">
+      <c r="M76" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N76" s="149" t="str">
+      <c r="N76" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O76" s="150" t="str">
+      <c r="O76" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="77" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A77" s="144" t="s">
-        <v>574</v>
+      <c r="A77" s="129" t="s">
+        <v>572</v>
       </c>
       <c r="B77" s="22">
         <v>73</v>
       </c>
-      <c r="C77" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="145">
+      <c r="C77" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="130">
         <v>150</v>
       </c>
-      <c r="F77" s="146" t="s">
+      <c r="F77" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G77" s="147"/>
-      <c r="H77" s="148" t="s">
+      <c r="G77" s="132"/>
+      <c r="H77" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I77" s="143"/>
-      <c r="J77" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K77" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L77" s="147">
+      <c r="I77" s="128"/>
+      <c r="J77" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K77" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L77" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M77" s="149" t="str">
+      <c r="M77" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N77" s="149" t="str">
+      <c r="N77" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O77" s="150" t="str">
+      <c r="O77" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="78" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A78" s="144" t="s">
-        <v>575</v>
+      <c r="A78" s="129" t="s">
+        <v>573</v>
       </c>
       <c r="B78" s="106">
         <v>74</v>
       </c>
-      <c r="C78" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="145">
+      <c r="C78" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="130">
         <v>150</v>
       </c>
-      <c r="F78" s="146" t="s">
+      <c r="F78" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G78" s="147"/>
-      <c r="H78" s="148" t="s">
+      <c r="G78" s="132"/>
+      <c r="H78" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I78" s="143"/>
-      <c r="J78" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K78" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L78" s="147">
+      <c r="I78" s="128"/>
+      <c r="J78" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K78" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L78" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M78" s="149" t="str">
+      <c r="M78" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N78" s="149" t="str">
+      <c r="N78" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O78" s="150" t="str">
+      <c r="O78" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="79" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A79" s="144" t="s">
-        <v>576</v>
+      <c r="A79" s="129" t="s">
+        <v>574</v>
       </c>
       <c r="B79" s="22">
         <v>75</v>
       </c>
-      <c r="C79" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="145">
+      <c r="C79" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="130">
         <v>40</v>
       </c>
-      <c r="F79" s="146" t="s">
+      <c r="F79" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="148" t="s">
+      <c r="G79" s="132"/>
+      <c r="H79" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I79" s="143"/>
-      <c r="J79" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K79" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L79" s="147">
+      <c r="I79" s="128"/>
+      <c r="J79" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K79" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L79" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M79" s="149" t="str">
+      <c r="M79" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N79" s="149" t="str">
+      <c r="N79" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O79" s="150" t="str">
+      <c r="O79" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="80" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A80" s="144" t="s">
-        <v>577</v>
+      <c r="A80" s="129" t="s">
+        <v>575</v>
       </c>
       <c r="B80" s="22">
         <v>76</v>
       </c>
-      <c r="C80" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D80" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="145">
+      <c r="C80" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="130">
         <v>50</v>
       </c>
-      <c r="F80" s="146" t="s">
+      <c r="F80" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G80" s="147"/>
-      <c r="H80" s="148" t="s">
+      <c r="G80" s="132"/>
+      <c r="H80" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I80" s="143" t="s">
+      <c r="I80" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J80" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K80" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L80" s="147">
+      <c r="J80" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K80" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L80" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M80" s="149" t="str">
+      <c r="M80" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N80" s="149" t="str">
+      <c r="N80" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O80" s="150" t="str">
+      <c r="O80" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="81" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A81" s="144" t="s">
-        <v>578</v>
+      <c r="A81" s="129" t="s">
+        <v>576</v>
       </c>
       <c r="B81" s="106">
         <v>77</v>
       </c>
-      <c r="C81" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D81" s="145" t="s">
+      <c r="C81" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="145">
+      <c r="E81" s="130">
         <v>4</v>
       </c>
-      <c r="F81" s="146" t="s">
+      <c r="F81" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G81" s="147"/>
-      <c r="H81" s="148" t="s">
+      <c r="G81" s="132"/>
+      <c r="H81" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I81" s="143"/>
-      <c r="J81" s="147" t="s">
+      <c r="I81" s="128"/>
+      <c r="J81" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K81" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L81" s="147">
+      <c r="K81" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L81" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M81" s="149" t="str">
+      <c r="M81" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N81" s="149" t="str">
+      <c r="N81" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O81" s="150" t="str">
+      <c r="O81" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="82" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A82" s="144" t="s">
-        <v>579</v>
+      <c r="A82" s="129" t="s">
+        <v>577</v>
       </c>
       <c r="B82" s="22">
         <v>78</v>
       </c>
-      <c r="C82" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" s="145">
+      <c r="C82" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="130">
         <v>3</v>
       </c>
-      <c r="F82" s="146" t="s">
+      <c r="F82" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G82" s="147"/>
-      <c r="H82" s="148" t="s">
+      <c r="G82" s="132"/>
+      <c r="H82" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I82" s="143"/>
-      <c r="J82" s="147" t="s">
+      <c r="I82" s="128"/>
+      <c r="J82" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K82" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L82" s="147">
+      <c r="K82" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L82" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M82" s="149" t="str">
+      <c r="M82" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N82" s="149" t="str">
+      <c r="N82" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O82" s="150" t="str">
+      <c r="O82" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="83" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A83" s="144" t="s">
-        <v>580</v>
+      <c r="A83" s="129" t="s">
+        <v>578</v>
       </c>
       <c r="B83" s="22">
         <v>79</v>
       </c>
-      <c r="C83" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D83" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="145">
+      <c r="C83" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="130">
         <v>55</v>
       </c>
-      <c r="F83" s="146" t="s">
+      <c r="F83" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G83" s="147"/>
-      <c r="H83" s="148" t="s">
+      <c r="G83" s="132"/>
+      <c r="H83" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I83" s="143" t="s">
+      <c r="I83" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="J83" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K83" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L83" s="147">
+      <c r="J83" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K83" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L83" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M83" s="149" t="str">
+      <c r="M83" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N83" s="149" t="str">
+      <c r="N83" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O83" s="150" t="str">
+      <c r="O83" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="84" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A84" s="144" t="s">
-        <v>581</v>
+      <c r="A84" s="129" t="s">
+        <v>579</v>
       </c>
       <c r="B84" s="106">
         <v>80</v>
       </c>
-      <c r="C84" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="145">
+      <c r="C84" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="130">
         <v>65</v>
       </c>
-      <c r="F84" s="146" t="s">
+      <c r="F84" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G84" s="147"/>
-      <c r="H84" s="148" t="s">
+      <c r="G84" s="132"/>
+      <c r="H84" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I84" s="143"/>
-      <c r="J84" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K84" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L84" s="147">
+      <c r="I84" s="128"/>
+      <c r="J84" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K84" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L84" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M84" s="149" t="str">
+      <c r="M84" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N84" s="149" t="str">
+      <c r="N84" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O84" s="150" t="str">
+      <c r="O84" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="85" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A85" s="144" t="s">
-        <v>582</v>
+      <c r="A85" s="129" t="s">
+        <v>580</v>
       </c>
       <c r="B85" s="22">
         <v>81</v>
       </c>
-      <c r="C85" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D85" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E85" s="145">
+      <c r="C85" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="130">
         <v>3</v>
       </c>
-      <c r="F85" s="146" t="s">
+      <c r="F85" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G85" s="147"/>
-      <c r="H85" s="148" t="s">
+      <c r="G85" s="132"/>
+      <c r="H85" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I85" s="143"/>
-      <c r="J85" s="147" t="s">
+      <c r="I85" s="128"/>
+      <c r="J85" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K85" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L85" s="147">
+      <c r="K85" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L85" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M85" s="149" t="str">
+      <c r="M85" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N85" s="149" t="str">
+      <c r="N85" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O85" s="150" t="str">
+      <c r="O85" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="86" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A86" s="144" t="s">
-        <v>583</v>
+      <c r="A86" s="129" t="s">
+        <v>581</v>
       </c>
       <c r="B86" s="22">
         <v>82</v>
       </c>
-      <c r="C86" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E86" s="145">
+      <c r="C86" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" s="130">
         <v>65</v>
       </c>
-      <c r="F86" s="146" t="s">
+      <c r="F86" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G86" s="147"/>
-      <c r="H86" s="148" t="s">
+      <c r="G86" s="132"/>
+      <c r="H86" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I86" s="143"/>
-      <c r="J86" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K86" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L86" s="147">
+      <c r="I86" s="128"/>
+      <c r="J86" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K86" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L86" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M86" s="149" t="str">
+      <c r="M86" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N86" s="149" t="str">
+      <c r="N86" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O86" s="150" t="str">
+      <c r="O86" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="87" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A87" s="144" t="s">
-        <v>584</v>
+      <c r="A87" s="129" t="s">
+        <v>582</v>
       </c>
       <c r="B87" s="106">
         <v>83</v>
       </c>
-      <c r="C87" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="145">
+      <c r="C87" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="130">
         <v>50</v>
       </c>
-      <c r="F87" s="146" t="s">
+      <c r="F87" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G87" s="147"/>
-      <c r="H87" s="148" t="s">
+      <c r="G87" s="132"/>
+      <c r="H87" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I87" s="143"/>
-      <c r="J87" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K87" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L87" s="147">
+      <c r="I87" s="128"/>
+      <c r="J87" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K87" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L87" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M87" s="149" t="str">
+      <c r="M87" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N87" s="149" t="str">
+      <c r="N87" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O87" s="150" t="str">
+      <c r="O87" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="88" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A88" s="144" t="s">
-        <v>585</v>
+      <c r="A88" s="129" t="s">
+        <v>583</v>
       </c>
       <c r="B88" s="22">
         <v>84</v>
       </c>
-      <c r="C88" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D88" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" s="145">
+      <c r="C88" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="130">
         <v>150</v>
       </c>
-      <c r="F88" s="146" t="s">
+      <c r="F88" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G88" s="147"/>
-      <c r="H88" s="148" t="s">
+      <c r="G88" s="132"/>
+      <c r="H88" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I88" s="143"/>
-      <c r="J88" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K88" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L88" s="147">
+      <c r="I88" s="128"/>
+      <c r="J88" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K88" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L88" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M88" s="149" t="str">
+      <c r="M88" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N88" s="149" t="str">
+      <c r="N88" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O88" s="150" t="str">
+      <c r="O88" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="89" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A89" s="144" t="s">
-        <v>586</v>
+      <c r="A89" s="129" t="s">
+        <v>584</v>
       </c>
       <c r="B89" s="22">
         <v>85</v>
       </c>
-      <c r="C89" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D89" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" s="145">
+      <c r="C89" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="130">
         <v>150</v>
       </c>
-      <c r="F89" s="146" t="s">
+      <c r="F89" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G89" s="147"/>
-      <c r="H89" s="148" t="s">
+      <c r="G89" s="132"/>
+      <c r="H89" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I89" s="143"/>
-      <c r="J89" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K89" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L89" s="147">
+      <c r="I89" s="128"/>
+      <c r="J89" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K89" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L89" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M89" s="149" t="str">
+      <c r="M89" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N89" s="149" t="str">
+      <c r="N89" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O89" s="150" t="str">
+      <c r="O89" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="90" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A90" s="144" t="s">
-        <v>587</v>
+      <c r="A90" s="129" t="s">
+        <v>585</v>
       </c>
       <c r="B90" s="106">
         <v>86</v>
       </c>
-      <c r="C90" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D90" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="145">
+      <c r="C90" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="130">
         <v>40</v>
       </c>
-      <c r="F90" s="146" t="s">
+      <c r="F90" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G90" s="147"/>
-      <c r="H90" s="148" t="s">
+      <c r="G90" s="132"/>
+      <c r="H90" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I90" s="143"/>
-      <c r="J90" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K90" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L90" s="147">
+      <c r="I90" s="128"/>
+      <c r="J90" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K90" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L90" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M90" s="149" t="str">
+      <c r="M90" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N90" s="149" t="str">
+      <c r="N90" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O90" s="150" t="str">
+      <c r="O90" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="91" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A91" s="144" t="s">
-        <v>588</v>
+      <c r="A91" s="129" t="s">
+        <v>586</v>
       </c>
       <c r="B91" s="22">
         <v>87</v>
       </c>
-      <c r="C91" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D91" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="145">
+      <c r="C91" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="130">
         <v>50</v>
       </c>
-      <c r="F91" s="146" t="s">
+      <c r="F91" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G91" s="147"/>
-      <c r="H91" s="148" t="s">
+      <c r="G91" s="132"/>
+      <c r="H91" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I91" s="143" t="s">
+      <c r="I91" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J91" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K91" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L91" s="147">
+      <c r="J91" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K91" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L91" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M91" s="149" t="str">
+      <c r="M91" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N91" s="149" t="str">
+      <c r="N91" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O91" s="150" t="str">
+      <c r="O91" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="92" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A92" s="144" t="s">
-        <v>589</v>
+      <c r="A92" s="129" t="s">
+        <v>587</v>
       </c>
       <c r="B92" s="22">
         <v>88</v>
       </c>
-      <c r="C92" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" s="145" t="s">
+      <c r="C92" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E92" s="145">
+      <c r="E92" s="130">
         <v>4</v>
       </c>
-      <c r="F92" s="146" t="s">
+      <c r="F92" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G92" s="147"/>
-      <c r="H92" s="148" t="s">
+      <c r="G92" s="132"/>
+      <c r="H92" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I92" s="143"/>
-      <c r="J92" s="147" t="s">
+      <c r="I92" s="128"/>
+      <c r="J92" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K92" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L92" s="147">
+      <c r="K92" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L92" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M92" s="149" t="str">
+      <c r="M92" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N92" s="149" t="str">
+      <c r="N92" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O92" s="150" t="str">
+      <c r="O92" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="93" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A93" s="144" t="s">
-        <v>590</v>
+      <c r="A93" s="129" t="s">
+        <v>588</v>
       </c>
       <c r="B93" s="106">
         <v>89</v>
       </c>
-      <c r="C93" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D93" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" s="145">
+      <c r="C93" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="130">
         <v>3</v>
       </c>
-      <c r="F93" s="146" t="s">
+      <c r="F93" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G93" s="147"/>
-      <c r="H93" s="148" t="s">
+      <c r="G93" s="132"/>
+      <c r="H93" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I93" s="143"/>
-      <c r="J93" s="147" t="s">
+      <c r="I93" s="128"/>
+      <c r="J93" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K93" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L93" s="147">
+      <c r="K93" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L93" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M93" s="149" t="str">
+      <c r="M93" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N93" s="149" t="str">
+      <c r="N93" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O93" s="150" t="str">
+      <c r="O93" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="94" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A94" s="144" t="s">
-        <v>591</v>
+      <c r="A94" s="129" t="s">
+        <v>589</v>
       </c>
       <c r="B94" s="22">
         <v>90</v>
       </c>
-      <c r="C94" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="145">
+      <c r="C94" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" s="130">
         <v>55</v>
       </c>
-      <c r="F94" s="146" t="s">
+      <c r="F94" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G94" s="147"/>
-      <c r="H94" s="148" t="s">
+      <c r="G94" s="132"/>
+      <c r="H94" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I94" s="143" t="s">
+      <c r="I94" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="J94" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K94" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L94" s="147">
+      <c r="J94" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K94" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L94" s="132">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M94" s="149" t="str">
+      <c r="M94" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N94" s="149" t="str">
+      <c r="N94" s="134" t="str">
         <f t="shared" si="9"/>
         <v>X</v>
       </c>
-      <c r="O94" s="150" t="str">
+      <c r="O94" s="135" t="str">
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
     </row>
     <row r="95" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A95" s="144" t="s">
-        <v>592</v>
+      <c r="A95" s="129" t="s">
+        <v>590</v>
       </c>
       <c r="B95" s="22">
         <v>91</v>
       </c>
-      <c r="C95" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E95" s="145">
+      <c r="C95" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="130">
         <v>65</v>
       </c>
-      <c r="F95" s="146" t="s">
+      <c r="F95" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G95" s="147"/>
-      <c r="H95" s="148" t="s">
+      <c r="G95" s="132"/>
+      <c r="H95" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I95" s="143"/>
-      <c r="J95" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K95" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L95" s="147">
+      <c r="I95" s="128"/>
+      <c r="J95" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K95" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L95" s="132">
         <f t="shared" ref="L95:L116" si="12">IF(K95="Public",1,IF(K95="FOUO",2,IF(K95="Sensitive",3,IF(K95="System-Only",4))))</f>
         <v>1</v>
       </c>
-      <c r="M95" s="149" t="str">
+      <c r="M95" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N95" s="149" t="str">
+      <c r="N95" s="134" t="str">
         <f t="shared" ref="N95:N116" si="13">IF(L95&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O95" s="150" t="str">
+      <c r="O95" s="135" t="str">
         <f t="shared" ref="O95:O116" si="14">IF(L95&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="96" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A96" s="144" t="s">
-        <v>593</v>
+      <c r="A96" s="129" t="s">
+        <v>591</v>
       </c>
       <c r="B96" s="106">
         <v>92</v>
       </c>
-      <c r="C96" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D96" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="145">
+      <c r="C96" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="130">
         <v>3</v>
       </c>
-      <c r="F96" s="146" t="s">
+      <c r="F96" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G96" s="147"/>
-      <c r="H96" s="148" t="s">
+      <c r="G96" s="132"/>
+      <c r="H96" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I96" s="143"/>
-      <c r="J96" s="147" t="s">
+      <c r="I96" s="128"/>
+      <c r="J96" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K96" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L96" s="147">
+      <c r="K96" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L96" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M96" s="149" t="str">
+      <c r="M96" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N96" s="149" t="str">
+      <c r="N96" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O96" s="150" t="str">
+      <c r="O96" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="97" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A97" s="144" t="s">
-        <v>594</v>
+      <c r="A97" s="129" t="s">
+        <v>592</v>
       </c>
       <c r="B97" s="22">
         <v>93</v>
       </c>
-      <c r="C97" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" s="145">
+      <c r="C97" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="130">
         <v>65</v>
       </c>
-      <c r="F97" s="146" t="s">
+      <c r="F97" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G97" s="147"/>
-      <c r="H97" s="148" t="s">
+      <c r="G97" s="132"/>
+      <c r="H97" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I97" s="143"/>
-      <c r="J97" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K97" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L97" s="147">
+      <c r="I97" s="128"/>
+      <c r="J97" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K97" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L97" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M97" s="149" t="str">
+      <c r="M97" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N97" s="149" t="str">
+      <c r="N97" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O97" s="150" t="str">
+      <c r="O97" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="98" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A98" s="144" t="s">
-        <v>595</v>
+      <c r="A98" s="129" t="s">
+        <v>593</v>
       </c>
       <c r="B98" s="22">
         <v>94</v>
       </c>
-      <c r="C98" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="145">
+      <c r="C98" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="130">
         <v>50</v>
       </c>
-      <c r="F98" s="146" t="s">
+      <c r="F98" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G98" s="147"/>
-      <c r="H98" s="148" t="s">
+      <c r="G98" s="132"/>
+      <c r="H98" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I98" s="143"/>
-      <c r="J98" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K98" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L98" s="147">
+      <c r="I98" s="128"/>
+      <c r="J98" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K98" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L98" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M98" s="149" t="str">
+      <c r="M98" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N98" s="149" t="str">
+      <c r="N98" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O98" s="150" t="str">
+      <c r="O98" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="99" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A99" s="144" t="s">
-        <v>596</v>
+      <c r="A99" s="129" t="s">
+        <v>594</v>
       </c>
       <c r="B99" s="106">
         <v>95</v>
       </c>
-      <c r="C99" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="145">
+      <c r="C99" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="130">
         <v>150</v>
       </c>
-      <c r="F99" s="146" t="s">
+      <c r="F99" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G99" s="147"/>
-      <c r="H99" s="148" t="s">
+      <c r="G99" s="132"/>
+      <c r="H99" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I99" s="143"/>
-      <c r="J99" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K99" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L99" s="147">
+      <c r="I99" s="128"/>
+      <c r="J99" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K99" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L99" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M99" s="149" t="str">
+      <c r="M99" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N99" s="149" t="str">
+      <c r="N99" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O99" s="150" t="str">
+      <c r="O99" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="100" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A100" s="144" t="s">
-        <v>597</v>
+      <c r="A100" s="129" t="s">
+        <v>595</v>
       </c>
       <c r="B100" s="22">
         <v>96</v>
       </c>
-      <c r="C100" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" s="145">
+      <c r="C100" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="130">
         <v>150</v>
       </c>
-      <c r="F100" s="146" t="s">
+      <c r="F100" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G100" s="147"/>
-      <c r="H100" s="148" t="s">
+      <c r="G100" s="132"/>
+      <c r="H100" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I100" s="143"/>
-      <c r="J100" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K100" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L100" s="147">
+      <c r="I100" s="128"/>
+      <c r="J100" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K100" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L100" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M100" s="149" t="str">
+      <c r="M100" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N100" s="149" t="str">
+      <c r="N100" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O100" s="150" t="str">
+      <c r="O100" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="101" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A101" s="144" t="s">
-        <v>598</v>
+      <c r="A101" s="129" t="s">
+        <v>596</v>
       </c>
       <c r="B101" s="22">
         <v>97</v>
       </c>
-      <c r="C101" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="145">
+      <c r="C101" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="130">
         <v>40</v>
       </c>
-      <c r="F101" s="146" t="s">
+      <c r="F101" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G101" s="147"/>
-      <c r="H101" s="148" t="s">
+      <c r="G101" s="132"/>
+      <c r="H101" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I101" s="143"/>
-      <c r="J101" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K101" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L101" s="147">
+      <c r="I101" s="128"/>
+      <c r="J101" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K101" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L101" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M101" s="149" t="str">
+      <c r="M101" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N101" s="149" t="str">
+      <c r="N101" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O101" s="150" t="str">
+      <c r="O101" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="102" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A102" s="144" t="s">
-        <v>599</v>
+      <c r="A102" s="129" t="s">
+        <v>597</v>
       </c>
       <c r="B102" s="106">
         <v>98</v>
       </c>
-      <c r="C102" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" s="145">
+      <c r="C102" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" s="130">
         <v>50</v>
       </c>
-      <c r="F102" s="146" t="s">
+      <c r="F102" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G102" s="147"/>
-      <c r="H102" s="148" t="s">
+      <c r="G102" s="132"/>
+      <c r="H102" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I102" s="143" t="s">
+      <c r="I102" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J102" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K102" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L102" s="147">
+      <c r="J102" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K102" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L102" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M102" s="149" t="str">
+      <c r="M102" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N102" s="149" t="str">
+      <c r="N102" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O102" s="150" t="str">
+      <c r="O102" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="103" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A103" s="144" t="s">
-        <v>600</v>
+      <c r="A103" s="129" t="s">
+        <v>598</v>
       </c>
       <c r="B103" s="22">
         <v>99</v>
       </c>
-      <c r="C103" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103" s="145" t="s">
+      <c r="C103" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E103" s="145">
+      <c r="E103" s="130">
         <v>4</v>
       </c>
-      <c r="F103" s="146" t="s">
+      <c r="F103" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G103" s="147"/>
-      <c r="H103" s="148" t="s">
+      <c r="G103" s="132"/>
+      <c r="H103" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I103" s="143"/>
-      <c r="J103" s="147" t="s">
+      <c r="I103" s="128"/>
+      <c r="J103" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K103" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L103" s="147">
+      <c r="K103" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L103" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M103" s="149" t="str">
+      <c r="M103" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N103" s="149" t="str">
+      <c r="N103" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O103" s="150" t="str">
+      <c r="O103" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="104" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A104" s="144" t="s">
-        <v>601</v>
+      <c r="A104" s="129" t="s">
+        <v>599</v>
       </c>
       <c r="B104" s="22">
         <v>100</v>
       </c>
-      <c r="C104" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="145">
+      <c r="C104" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="130">
         <v>3</v>
       </c>
-      <c r="F104" s="146" t="s">
+      <c r="F104" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G104" s="147"/>
-      <c r="H104" s="148" t="s">
+      <c r="G104" s="132"/>
+      <c r="H104" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="I104" s="143"/>
-      <c r="J104" s="147" t="s">
+      <c r="I104" s="128"/>
+      <c r="J104" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K104" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L104" s="147">
+      <c r="K104" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L104" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M104" s="149" t="str">
+      <c r="M104" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N104" s="149" t="str">
+      <c r="N104" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O104" s="150" t="str">
+      <c r="O104" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="105" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A105" s="144" t="s">
-        <v>602</v>
+      <c r="A105" s="129" t="s">
+        <v>600</v>
       </c>
       <c r="B105" s="106">
         <v>101</v>
       </c>
-      <c r="C105" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D105" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="145">
+      <c r="C105" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="130">
         <v>55</v>
       </c>
-      <c r="F105" s="146" t="s">
+      <c r="F105" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G105" s="147"/>
-      <c r="H105" s="148" t="s">
+      <c r="G105" s="132"/>
+      <c r="H105" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I105" s="143" t="s">
+      <c r="I105" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="J105" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K105" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L105" s="147">
+      <c r="J105" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K105" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L105" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M105" s="149" t="str">
+      <c r="M105" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N105" s="149" t="str">
+      <c r="N105" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O105" s="150" t="str">
+      <c r="O105" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="106" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A106" s="144" t="s">
-        <v>603</v>
+      <c r="A106" s="129" t="s">
+        <v>601</v>
       </c>
       <c r="B106" s="22">
         <v>102</v>
       </c>
-      <c r="C106" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E106" s="145">
+      <c r="C106" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" s="130">
         <v>65</v>
       </c>
-      <c r="F106" s="146" t="s">
+      <c r="F106" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G106" s="147"/>
-      <c r="H106" s="148" t="s">
+      <c r="G106" s="132"/>
+      <c r="H106" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I106" s="143"/>
-      <c r="J106" s="147" t="s">
-        <v>541</v>
-      </c>
-      <c r="K106" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L106" s="147">
+      <c r="I106" s="128"/>
+      <c r="J106" s="132" t="s">
+        <v>539</v>
+      </c>
+      <c r="K106" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L106" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M106" s="149" t="str">
+      <c r="M106" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N106" s="149" t="str">
+      <c r="N106" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O106" s="150" t="str">
+      <c r="O106" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="107" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A107" s="144" t="s">
-        <v>604</v>
+      <c r="A107" s="129" t="s">
+        <v>602</v>
       </c>
       <c r="B107" s="22">
         <v>103</v>
       </c>
-      <c r="C107" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" s="145">
+      <c r="C107" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="130">
         <v>3</v>
       </c>
-      <c r="F107" s="146" t="s">
+      <c r="F107" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G107" s="147"/>
-      <c r="H107" s="148" t="s">
+      <c r="G107" s="132"/>
+      <c r="H107" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I107" s="143"/>
-      <c r="J107" s="147" t="s">
+      <c r="I107" s="128"/>
+      <c r="J107" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="K107" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L107" s="147">
+      <c r="K107" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L107" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M107" s="149" t="str">
+      <c r="M107" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N107" s="149" t="str">
+      <c r="N107" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O107" s="150" t="str">
+      <c r="O107" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="108" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A108" s="144" t="s">
-        <v>605</v>
+      <c r="A108" s="129" t="s">
+        <v>603</v>
       </c>
       <c r="B108" s="106">
         <v>104</v>
       </c>
-      <c r="C108" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="145">
+      <c r="C108" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="130">
         <v>65</v>
       </c>
-      <c r="F108" s="146" t="s">
+      <c r="F108" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G108" s="147"/>
-      <c r="H108" s="148" t="s">
+      <c r="G108" s="132"/>
+      <c r="H108" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I108" s="143"/>
-      <c r="J108" s="147" t="s">
-        <v>544</v>
-      </c>
-      <c r="K108" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L108" s="147">
+      <c r="I108" s="128"/>
+      <c r="J108" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="K108" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L108" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M108" s="149" t="str">
+      <c r="M108" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N108" s="149" t="str">
+      <c r="N108" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O108" s="150" t="str">
+      <c r="O108" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="109" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A109" s="144" t="s">
-        <v>606</v>
+      <c r="A109" s="129" t="s">
+        <v>604</v>
       </c>
       <c r="B109" s="22">
         <v>105</v>
       </c>
-      <c r="C109" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E109" s="145">
+      <c r="C109" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" s="130">
         <v>50</v>
       </c>
-      <c r="F109" s="146" t="s">
+      <c r="F109" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G109" s="147"/>
-      <c r="H109" s="148" t="s">
+      <c r="G109" s="132"/>
+      <c r="H109" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I109" s="143"/>
-      <c r="J109" s="147" t="s">
-        <v>546</v>
-      </c>
-      <c r="K109" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L109" s="147">
+      <c r="I109" s="128"/>
+      <c r="J109" s="132" t="s">
+        <v>544</v>
+      </c>
+      <c r="K109" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L109" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M109" s="149" t="str">
+      <c r="M109" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N109" s="149" t="str">
+      <c r="N109" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O109" s="150" t="str">
+      <c r="O109" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="110" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A110" s="144" t="s">
-        <v>607</v>
+      <c r="A110" s="129" t="s">
+        <v>605</v>
       </c>
       <c r="B110" s="22">
         <v>106</v>
       </c>
-      <c r="C110" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D110" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E110" s="145">
+      <c r="C110" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E110" s="130">
         <v>150</v>
       </c>
-      <c r="F110" s="146" t="s">
+      <c r="F110" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G110" s="147"/>
-      <c r="H110" s="148" t="s">
+      <c r="G110" s="132"/>
+      <c r="H110" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I110" s="143"/>
-      <c r="J110" s="147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K110" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L110" s="147">
+      <c r="I110" s="128"/>
+      <c r="J110" s="132" t="s">
+        <v>546</v>
+      </c>
+      <c r="K110" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L110" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M110" s="149" t="str">
+      <c r="M110" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N110" s="149" t="str">
+      <c r="N110" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O110" s="150" t="str">
+      <c r="O110" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="111" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A111" s="144" t="s">
-        <v>608</v>
+      <c r="A111" s="129" t="s">
+        <v>606</v>
       </c>
       <c r="B111" s="106">
         <v>107</v>
       </c>
-      <c r="C111" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E111" s="145">
+      <c r="C111" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" s="130">
         <v>150</v>
       </c>
-      <c r="F111" s="146" t="s">
+      <c r="F111" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G111" s="147"/>
-      <c r="H111" s="148" t="s">
+      <c r="G111" s="132"/>
+      <c r="H111" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I111" s="143"/>
-      <c r="J111" s="147" t="s">
-        <v>550</v>
-      </c>
-      <c r="K111" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L111" s="147">
+      <c r="I111" s="128"/>
+      <c r="J111" s="132" t="s">
+        <v>548</v>
+      </c>
+      <c r="K111" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L111" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M111" s="149" t="str">
+      <c r="M111" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N111" s="149" t="str">
+      <c r="N111" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O111" s="150" t="str">
+      <c r="O111" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="112" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A112" s="144" t="s">
-        <v>609</v>
+      <c r="A112" s="129" t="s">
+        <v>607</v>
       </c>
       <c r="B112" s="22">
         <v>108</v>
       </c>
-      <c r="C112" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D112" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E112" s="145">
+      <c r="C112" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" s="130">
         <v>40</v>
       </c>
-      <c r="F112" s="146" t="s">
+      <c r="F112" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G112" s="147"/>
-      <c r="H112" s="148" t="s">
+      <c r="G112" s="132"/>
+      <c r="H112" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I112" s="143"/>
-      <c r="J112" s="147" t="s">
-        <v>552</v>
-      </c>
-      <c r="K112" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L112" s="147">
+      <c r="I112" s="128"/>
+      <c r="J112" s="132" t="s">
+        <v>550</v>
+      </c>
+      <c r="K112" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L112" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M112" s="149" t="str">
+      <c r="M112" s="134" t="str">
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="N112" s="149" t="str">
+      <c r="N112" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O112" s="150" t="str">
+      <c r="O112" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="113" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A113" s="144" t="s">
-        <v>610</v>
+      <c r="A113" s="129" t="s">
+        <v>608</v>
       </c>
       <c r="B113" s="22">
         <v>109</v>
       </c>
-      <c r="C113" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E113" s="145">
+      <c r="C113" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="130">
         <v>50</v>
       </c>
-      <c r="F113" s="146" t="s">
+      <c r="F113" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G113" s="147"/>
-      <c r="H113" s="148" t="s">
+      <c r="G113" s="132"/>
+      <c r="H113" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I113" s="143" t="s">
+      <c r="I113" s="128" t="s">
         <v>418</v>
       </c>
-      <c r="J113" s="147" t="s">
-        <v>554</v>
-      </c>
-      <c r="K113" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L113" s="147">
+      <c r="J113" s="132" t="s">
+        <v>552</v>
+      </c>
+      <c r="K113" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L113" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M113" s="149" t="str">
+      <c r="M113" s="134" t="str">
         <f t="shared" ref="M113:M116" si="15">IF(L113&lt;=1,"X","")</f>
         <v>X</v>
       </c>
-      <c r="N113" s="149" t="str">
+      <c r="N113" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O113" s="150" t="str">
+      <c r="O113" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="114" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A114" s="144" t="s">
-        <v>611</v>
+      <c r="A114" s="129" t="s">
+        <v>609</v>
       </c>
       <c r="B114" s="106">
         <v>110</v>
       </c>
-      <c r="C114" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D114" s="145" t="s">
+      <c r="C114" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D114" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="E114" s="145">
+      <c r="E114" s="130">
         <v>4</v>
       </c>
-      <c r="F114" s="146" t="s">
+      <c r="F114" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G114" s="147"/>
-      <c r="H114" s="148" t="s">
+      <c r="G114" s="132"/>
+      <c r="H114" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I114" s="143"/>
-      <c r="J114" s="147" t="s">
+      <c r="I114" s="128"/>
+      <c r="J114" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="K114" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L114" s="147">
+      <c r="K114" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L114" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M114" s="149" t="str">
+      <c r="M114" s="134" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="N114" s="149" t="str">
+      <c r="N114" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O114" s="150" t="str">
+      <c r="O114" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="115" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A115" s="144" t="s">
-        <v>612</v>
+      <c r="A115" s="129" t="s">
+        <v>610</v>
       </c>
       <c r="B115" s="22">
         <v>111</v>
       </c>
-      <c r="C115" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E115" s="145">
+      <c r="C115" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" s="130">
         <v>3</v>
       </c>
-      <c r="F115" s="146" t="s">
+      <c r="F115" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G115" s="147"/>
-      <c r="H115" s="148" t="s">
+      <c r="G115" s="132"/>
+      <c r="H115" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I115" s="143"/>
-      <c r="J115" s="147" t="s">
+      <c r="I115" s="128"/>
+      <c r="J115" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="K115" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L115" s="147">
+      <c r="K115" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L115" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M115" s="149" t="str">
+      <c r="M115" s="134" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="N115" s="149" t="str">
+      <c r="N115" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O115" s="150" t="str">
+      <c r="O115" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
     </row>
     <row r="116" spans="1:15" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A116" s="144" t="s">
-        <v>613</v>
+      <c r="A116" s="129" t="s">
+        <v>611</v>
       </c>
       <c r="B116" s="22">
         <v>112</v>
       </c>
-      <c r="C116" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="D116" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="E116" s="145">
+      <c r="C116" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="130">
         <v>55</v>
       </c>
-      <c r="F116" s="146" t="s">
+      <c r="F116" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="G116" s="147"/>
-      <c r="H116" s="148" t="s">
+      <c r="G116" s="132"/>
+      <c r="H116" s="133" t="s">
         <v>428</v>
       </c>
-      <c r="I116" s="143" t="s">
+      <c r="I116" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="J116" s="147" t="s">
-        <v>558</v>
-      </c>
-      <c r="K116" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="L116" s="147">
+      <c r="J116" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="K116" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L116" s="132">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M116" s="149" t="str">
+      <c r="M116" s="134" t="str">
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="N116" s="149" t="str">
+      <c r="N116" s="134" t="str">
         <f t="shared" si="13"/>
         <v>X</v>
       </c>
-      <c r="O116" s="150" t="str">
+      <c r="O116" s="135" t="str">
         <f t="shared" si="14"/>
         <v>X</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G120" s="23"/>
       <c r="H120" s="25" t="s">
@@ -8760,7 +8760,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B126" s="106">
         <v>122</v>
@@ -8775,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G126" s="27"/>
       <c r="H126" s="107" t="s">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="I126" s="107"/>
       <c r="J126" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K126" s="29" t="s">
         <v>224</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B127" s="22">
         <v>123</v>
@@ -9625,10 +9625,10 @@
       <c r="B5" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="131"/>
+      <c r="D5" s="149"/>
       <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
@@ -9687,10 +9687,10 @@
       <c r="B10" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="151"/>
       <c r="F10" s="12" t="s">
         <v>4</v>
       </c>
@@ -9749,10 +9749,10 @@
       <c r="B15" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="38" t="s">
@@ -9814,10 +9814,10 @@
       <c r="B20" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="133"/>
+      <c r="D20" s="151"/>
       <c r="F20" s="11" t="s">
         <v>183</v>
       </c>
@@ -9876,10 +9876,10 @@
       <c r="B25" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="133"/>
+      <c r="D25" s="151"/>
       <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
@@ -10728,22 +10728,22 @@
       <c r="B147" s="16"/>
     </row>
     <row r="148" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="127" t="s">
+      <c r="C148" s="145" t="s">
         <v>408</v>
       </c>
-      <c r="D148" s="127"/>
-      <c r="E148" s="127"/>
-      <c r="F148" s="127"/>
-      <c r="G148" s="127"/>
+      <c r="D148" s="145"/>
+      <c r="E148" s="145"/>
+      <c r="F148" s="145"/>
+      <c r="G148" s="145"/>
     </row>
     <row r="149" spans="2:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="128" t="s">
+      <c r="C149" s="146" t="s">
         <v>481</v>
       </c>
-      <c r="D149" s="129"/>
-      <c r="E149" s="129"/>
-      <c r="F149" s="129"/>
-      <c r="G149" s="129"/>
+      <c r="D149" s="147"/>
+      <c r="E149" s="147"/>
+      <c r="F149" s="147"/>
+      <c r="G149" s="147"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C151" s="11" t="s">
@@ -11040,7 +11040,7 @@
         <v>38500000</v>
       </c>
       <c r="F185" s="77"/>
-      <c r="H185" s="127" t="s">
+      <c r="H185" s="145" t="s">
         <v>276</v>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
         <v>27500000</v>
       </c>
       <c r="F186" s="77"/>
-      <c r="H186" s="127"/>
+      <c r="H186" s="145"/>
     </row>
     <row r="187" spans="2:8" ht="31" x14ac:dyDescent="0.25">
       <c r="B187" s="101">
